--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FEB4251-FD85-4399-B3AB-863E877149B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7BB48E-826E-4B75-B365-200F61ED1A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_ Passenger Car" sheetId="1" r:id="rId1"/>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7BB48E-826E-4B75-B365-200F61ED1A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091019A-5868-4B90-9FE4-232697F49617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_ Passenger Car" sheetId="1" r:id="rId1"/>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3091019A-5868-4B90-9FE4-232697F49617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51439BC0-76B7-419B-A9C5-A51E41D308DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51439BC0-76B7-419B-A9C5-A51E41D308DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D542E79-AE68-4941-B1A1-B0FAFB357F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D542E79-AE68-4941-B1A1-B0FAFB357F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7C661-5156-4B8B-AB5B-6211C375BB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E7C661-5156-4B8B-AB5B-6211C375BB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5EEE48-3292-4B2B-8731-2987416A401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5EEE48-3292-4B2B-8731-2987416A401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170A3F2-D068-4FA9-8C89-656F038E02F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0170A3F2-D068-4FA9-8C89-656F038E02F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D145FD-F191-4942-BD37-B1A9D16F86E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales_ Passenger Car" sheetId="1" r:id="rId1"/>

--- a/inst/extdata/car sales - backup.xlsx
+++ b/inst/extdata/car sales - backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D145FD-F191-4942-BD37-B1A9D16F86E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3771A89A-D9B7-45D4-A44B-45C0AA42A492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
